--- a/fixtures/01 - tags.xlsx
+++ b/fixtures/01 - tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309DD61F-CD59-4237-8A6D-FCEEE8EFF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C537CE72-A420-47E8-9785-232B43FD4C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27045" yWindow="1575" windowWidth="27960" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="1410" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>tab</t>
   </si>
@@ -110,30 +110,6 @@
   </si>
   <si>
     <t>tag</t>
-  </si>
-  <si>
-    <t>vendor-type</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>mod</t>
-  </si>
-  <si>
-    <t>atomizer</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>driptip</t>
   </si>
 </sst>
 </file>
@@ -188,9 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Nadpis 2" xfId="1" builtinId="17"/>
@@ -507,21 +485,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155FFD59-B00A-42A0-9723-B6B17686BDEE}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -532,7 +510,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -543,7 +521,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -554,7 +532,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -565,7 +543,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -576,7 +554,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -587,7 +565,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -598,7 +576,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -609,7 +587,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -620,7 +598,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
@@ -631,7 +609,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -642,7 +620,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
@@ -653,7 +631,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -664,7 +642,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -675,7 +653,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -686,7 +664,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>18350</v>
       </c>
       <c r="B16" t="s">
@@ -697,7 +675,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>18650</v>
       </c>
       <c r="B17" t="s">
@@ -708,7 +686,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>20700</v>
       </c>
       <c r="B18" t="s">
@@ -719,7 +697,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>21700</v>
       </c>
       <c r="B19" t="s">
@@ -730,7 +708,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>26650</v>
       </c>
       <c r="B20" t="s">
@@ -741,7 +719,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
@@ -752,7 +730,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
@@ -763,7 +741,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
@@ -773,84 +751,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>